--- a/data/trans_dic/P32C-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P32C-Dificultad-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.0277905241161872</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.03749907935860058</v>
+        <v>0.03749907935860057</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.007984961869549115</v>
@@ -697,7 +697,7 @@
         <v>0.01902906007703314</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.02903261999888279</v>
+        <v>0.02903261999888278</v>
       </c>
     </row>
     <row r="5">
@@ -708,16 +708,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02358010891075715</v>
+        <v>0.0216915444411489</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02168821823777235</v>
+        <v>0.02099379929897392</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.0160115259026874</v>
+        <v>0.01664161979552481</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01962032567331952</v>
+        <v>0.01859604993799711</v>
       </c>
       <c r="G5" s="5" t="n">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.003694027806857478</v>
+        <v>0.003670792133733259</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.01605254662393847</v>
+        <v>0.01643533694265846</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.01470131278496102</v>
+        <v>0.01516230174909824</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.01090059751914336</v>
+        <v>0.01153735018789008</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.01500759230476849</v>
+        <v>0.01474053424757811</v>
       </c>
     </row>
     <row r="6">
@@ -750,38 +750,38 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.07139631320544736</v>
+        <v>0.06949967104734425</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.05247428614966115</v>
+        <v>0.04963096615933619</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.04490122933037874</v>
+        <v>0.0452901249275804</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.06772621447250066</v>
+        <v>0.07066172619667728</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.03772461221378332</v>
+        <v>0.0402958862020536</v>
       </c>
       <c r="H6" s="5" t="inlineStr"/>
       <c r="I6" s="5" t="n">
-        <v>0.01809561571638536</v>
+        <v>0.0201721250015941</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.03881207214679244</v>
+        <v>0.03936773264395717</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.04661349952658438</v>
+        <v>0.04660601251610619</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.03419060036118138</v>
+        <v>0.03526673999067279</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.02911538110224292</v>
+        <v>0.03099576481246769</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.04806244222950259</v>
+        <v>0.04894637039301732</v>
       </c>
     </row>
     <row r="7">
@@ -829,7 +829,7 @@
         <v>0.01077509799637311</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.008288557074096356</v>
+        <v>0.008288557074096358</v>
       </c>
     </row>
     <row r="8">
@@ -840,19 +840,19 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.006871136793872423</v>
+        <v>0.006471732044266085</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.007847956521393149</v>
+        <v>0.007997322884771247</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.007233374310726358</v>
+        <v>0.007613348271059611</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.003589923255257136</v>
+        <v>0.003956321823969478</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.003965292434231424</v>
+        <v>0.004035208719173782</v>
       </c>
       <c r="H8" s="5" t="n">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.007403423780635431</v>
+        <v>0.007448452862911476</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.006001828827862699</v>
+        <v>0.005464085384917188</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.004810891138535256</v>
+        <v>0.004944005662472171</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.003009477924734626</v>
+        <v>0.003642998139345711</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02754622151604712</v>
+        <v>0.02645943982531721</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03123463953521212</v>
+        <v>0.03319210679394872</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.03014402003560541</v>
+        <v>0.02999831203172064</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.02413782720607845</v>
+        <v>0.02474996676972065</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.04293202404181175</v>
+        <v>0.04439459312559805</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.01645995838403864</v>
+        <v>0.0165322188748684</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.01632058206166664</v>
+        <v>0.01554826161702558</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.01486326046065161</v>
+        <v>0.01289340943993399</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.0252816699400668</v>
+        <v>0.02489785223945894</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.02212587650835647</v>
+        <v>0.02123414080456932</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.01925658645630106</v>
+        <v>0.02008931603426806</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.01790548328438037</v>
+        <v>0.01728805592403795</v>
       </c>
     </row>
     <row r="10">
@@ -976,16 +976,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.004053473395017828</v>
+        <v>0.004294625171616425</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.004945468080869372</v>
+        <v>0.00410697584557519</v>
       </c>
       <c r="E11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.003771023241011095</v>
+        <v>0.003154132461846659</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>0</v>
@@ -997,19 +997,19 @@
         <v>0</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.005191593282266825</v>
+        <v>0.003181989602175076</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.004059281314704186</v>
+        <v>0.004164563331699699</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.003998550161033525</v>
+        <v>0.004746266833656459</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.001654697026143179</v>
+        <v>0.001383852890836975</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.005837467854298773</v>
+        <v>0.005918406221289746</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02237053287723797</v>
+        <v>0.02139815560261801</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.02352218803626543</v>
+        <v>0.0243092023985234</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01483469853326127</v>
+        <v>0.01738625583170879</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.01997360536391992</v>
+        <v>0.01986615761528305</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.0227861832630486</v>
+        <v>0.02588606375394314</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.02566385100317977</v>
+        <v>0.02535672613596627</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.02175533598430716</v>
+        <v>0.02210374873907844</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.05727721906359825</v>
+        <v>0.0456617323623058</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.01796293313259014</v>
+        <v>0.01819979455593171</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.0182956152966195</v>
+        <v>0.01984272877064883</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.01371412782169894</v>
+        <v>0.0137020640003743</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.0225867872952342</v>
+        <v>0.02638339506241788</v>
       </c>
     </row>
     <row r="13">
@@ -1089,7 +1089,7 @@
         <v>0.01102562540987702</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.01665261488473425</v>
+        <v>0.01665261488473426</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.0107365898557767</v>
@@ -1101,7 +1101,7 @@
         <v>0.01407668478034809</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.009318111912045514</v>
+        <v>0.009318111912045512</v>
       </c>
     </row>
     <row r="14">
@@ -1112,16 +1112,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.003167320882212172</v>
+        <v>0.003196836373608694</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.004447156387662739</v>
+        <v>0.004554797320642331</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.006191414479848274</v>
+        <v>0.005938056061533976</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.001160969746487245</v>
+        <v>0.00115006738954545</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>0</v>
@@ -1131,19 +1131,19 @@
         <v>0</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.002047558641641889</v>
+        <v>0.002045012282609331</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.002483007081690553</v>
+        <v>0.002421093965053521</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.003580510442140929</v>
+        <v>0.002090901396306137</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.005991509815080372</v>
+        <v>0.006087775308868077</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.003376791520029677</v>
+        <v>0.003604781898065103</v>
       </c>
     </row>
     <row r="15">
@@ -1154,38 +1154,38 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03520798443877381</v>
+        <v>0.037574299967081</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.04314155382310422</v>
+        <v>0.04309849566676981</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.0394716343713894</v>
+        <v>0.03579426345443427</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.01646506458035882</v>
+        <v>0.01788699784585538</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.03854424122919287</v>
+        <v>0.03376464217442537</v>
       </c>
       <c r="H15" s="5" t="inlineStr"/>
       <c r="I15" s="5" t="n">
-        <v>0.03673755946053815</v>
+        <v>0.03965278957927329</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.0543830502180656</v>
+        <v>0.05082196582991577</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.02845886763058264</v>
+        <v>0.02467874539419181</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.02830930305107864</v>
+        <v>0.02626624073344016</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.02934612515209609</v>
+        <v>0.02738683101718548</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.0217128045762249</v>
+        <v>0.02178567882351166</v>
       </c>
     </row>
     <row r="16">
@@ -1221,7 +1221,7 @@
         <v>0.005532781569330028</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.01292570210266656</v>
+        <v>0.01292570210266655</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.01449373219480569</v>
@@ -1244,40 +1244,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01158240414881462</v>
+        <v>0.01203089697944746</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01408167089155229</v>
+        <v>0.01470957774222144</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01120862156527512</v>
+        <v>0.01078015645884414</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.00766426330444181</v>
+        <v>0.007584594994078777</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.003983584331803671</v>
+        <v>0.00349209490351591</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.0009619886784660131</v>
+        <v>0.0009620673466711883</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.001876135693561073</v>
+        <v>0.001929245651457603</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.006080134797421802</v>
+        <v>0.006428207030403628</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.01010378671955598</v>
+        <v>0.01018966819461295</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.01032327500649421</v>
+        <v>0.01049220966669691</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.008798962351843182</v>
+        <v>0.00892232152352585</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.008332594589883006</v>
+        <v>0.008817465338251179</v>
       </c>
     </row>
     <row r="18">
@@ -1288,40 +1288,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.02397072994570655</v>
+        <v>0.02419670069721582</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.02829990318029862</v>
+        <v>0.02766141299008399</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.02323607027329182</v>
+        <v>0.02301248102289438</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.01718525131005596</v>
+        <v>0.01754026297804662</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.0193895410311752</v>
+        <v>0.01800840784721743</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.008783443535390123</v>
+        <v>0.008107483396411489</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.01183671093668516</v>
+        <v>0.0116423518154472</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.02499133389230403</v>
+        <v>0.02737560849107872</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.01968351254062228</v>
+        <v>0.02045785282035591</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.01918947125475205</v>
+        <v>0.01913558138434477</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.01687202092452041</v>
+        <v>0.01759054501596296</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.01730641731714679</v>
+        <v>0.01770214591431696</v>
       </c>
     </row>
     <row r="19">
@@ -1592,16 +1592,16 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>7091</v>
+        <v>6523</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>13052</v>
+        <v>12634</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>9286</v>
+        <v>9652</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>4214</v>
+        <v>3994</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0</v>
@@ -1611,19 +1611,19 @@
         <v>0</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>7758</v>
+        <v>7943</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>12990</v>
+        <v>13398</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>9865</v>
+        <v>10442</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>4979</v>
+        <v>4890</v>
       </c>
     </row>
     <row r="7">
@@ -1634,38 +1634,38 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>21470</v>
+        <v>20900</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>31578</v>
+        <v>29867</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>26041</v>
+        <v>26267</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>14544</v>
+        <v>15175</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>6886</v>
+        <v>7356</v>
       </c>
       <c r="H7" s="6" t="inlineStr"/>
       <c r="I7" s="6" t="n">
-        <v>5882</v>
+        <v>6557</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>4541</v>
+        <v>4606</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>22527</v>
+        <v>22523</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>30211</v>
+        <v>31162</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>26350</v>
+        <v>28052</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>15945</v>
+        <v>16238</v>
       </c>
     </row>
     <row r="8">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>4347</v>
+        <v>4094</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>4591</v>
+        <v>4679</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>3928</v>
+        <v>4134</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>1644</v>
+        <v>1812</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>982</v>
+        <v>1000</v>
       </c>
       <c r="H10" s="6" t="n">
         <v>0</v>
@@ -1792,16 +1792,16 @@
         <v>0</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>6518</v>
+        <v>6557</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>5402</v>
+        <v>4918</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>4167</v>
+        <v>4283</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>2114</v>
+        <v>2559</v>
       </c>
     </row>
     <row r="11">
@@ -1812,40 +1812,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>17428</v>
+        <v>16740</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>18274</v>
+        <v>19419</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>16369</v>
+        <v>16290</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>11057</v>
+        <v>11337</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>10635</v>
+        <v>10997</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>5186</v>
+        <v>5209</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>5275</v>
+        <v>5025</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>3632</v>
+        <v>3150</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>22257</v>
+        <v>21920</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>19916</v>
+        <v>19113</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>16681</v>
+        <v>17402</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>12577</v>
+        <v>12143</v>
       </c>
     </row>
     <row r="12">
@@ -1948,16 +1948,16 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>2656</v>
+        <v>2814</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>2701</v>
+        <v>2243</v>
       </c>
       <c r="E14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>1907</v>
+        <v>1595</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0</v>
@@ -1969,19 +1969,19 @@
         <v>0</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>1387</v>
+        <v>850</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>3946</v>
+        <v>4048</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>3286</v>
+        <v>3900</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>1351</v>
+        <v>1130</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>4512</v>
+        <v>4574</v>
       </c>
     </row>
     <row r="15">
@@ -1992,40 +1992,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>14658</v>
+        <v>14021</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>12846</v>
+        <v>13276</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>7805</v>
+        <v>9147</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>10102</v>
+        <v>10048</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>7219</v>
+        <v>8201</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>7073</v>
+        <v>6988</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>6321</v>
+        <v>6423</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>15301</v>
+        <v>12198</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>17461</v>
+        <v>17691</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>15034</v>
+        <v>16305</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>11200</v>
+        <v>11190</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>17458</v>
+        <v>20392</v>
       </c>
     </row>
     <row r="16">
@@ -2128,16 +2128,16 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>876</v>
+        <v>884</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1299</v>
+        <v>1330</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1963</v>
+        <v>1882</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0</v>
@@ -2147,19 +2147,19 @@
         <v>0</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1016</v>
+        <v>991</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>1635</v>
+        <v>955</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>2999</v>
+        <v>3047</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>2549</v>
+        <v>2721</v>
       </c>
     </row>
     <row r="19">
@@ -2170,38 +2170,38 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>9735</v>
+        <v>10389</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>12599</v>
+        <v>12587</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>12512</v>
+        <v>11347</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>7977</v>
+        <v>8665</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>5120</v>
+        <v>4485</v>
       </c>
       <c r="H19" s="6" t="inlineStr"/>
       <c r="I19" s="6" t="n">
-        <v>6743</v>
+        <v>7278</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>14702</v>
+        <v>13739</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>11649</v>
+        <v>10102</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>12929</v>
+        <v>11996</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>14689</v>
+        <v>13708</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>16389</v>
+        <v>16444</v>
       </c>
     </row>
     <row r="20">
@@ -2304,40 +2304,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>21603</v>
+        <v>22439</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>28516</v>
+        <v>29787</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>22037</v>
+        <v>21195</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>12746</v>
+        <v>12614</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>3505</v>
+        <v>3073</v>
       </c>
       <c r="H22" s="6" t="n">
         <v>998</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>2106</v>
+        <v>2165</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>5465</v>
+        <v>5778</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>27735</v>
+        <v>27971</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>31611</v>
+        <v>32129</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>27175</v>
+        <v>27556</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>21347</v>
+        <v>22589</v>
       </c>
     </row>
     <row r="23">
@@ -2348,40 +2348,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>44708</v>
+        <v>45130</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>57308</v>
+        <v>56015</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>45685</v>
+        <v>45245</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>28580</v>
+        <v>29170</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>17061</v>
+        <v>15846</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>9110</v>
+        <v>8408</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>13285</v>
+        <v>13067</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>22463</v>
+        <v>24606</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>54032</v>
+        <v>56157</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>58761</v>
+        <v>58596</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>52109</v>
+        <v>54328</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>44337</v>
+        <v>45351</v>
       </c>
     </row>
     <row r="24">
